--- a/biology/Médecine/CHU_Ibn_Rochd_(Casablanca)/CHU_Ibn_Rochd_(Casablanca).xlsx
+++ b/biology/Médecine/CHU_Ibn_Rochd_(Casablanca)/CHU_Ibn_Rochd_(Casablanca).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre hospitalier universitaire Ibn Rochd (abrégé CHUIR / CHU Ibn Rochd) est un centre universitaire hospitaliers du Maroc, situé dans la ville de Casablanca.
 Il est affilié au ministère de la Santé.
@@ -512,15 +524,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier universitaire comprend quatre établissements médicaux :
 l'hôpital Ibn Rochd (1020 lits) ;
 l'hôpital du 20 août 1953 (291 lits) ;
 l'hôpital mère et enfant Abdel Rahim Al Harouchi (374 lits) ;
 le centre d'examen et de traitement dentaire (106 chaises dédiées aux soins dentaires).
-Cela fait un total de 1685 lits[1]. Chaque année, le CHU Ibn Rochd accueille approximativement 1 030 000 patients. Les activités médicales du CHU comprennent des consultations médicales, totalisant 594 435, ainsi que la réalisation de 7 000 accouchements.[réf. nécessaire]
-Le CHU Hopital Ibn Rochd s'étend sur une superficie de 45 hectares et est situé dans le centre-ville, à proximité d'autres établissements de santé publics, et de divers transports en commun à côté sud, ce qui le rend facile d'accès libre[2],[3],[4].
+Cela fait un total de 1685 lits. Chaque année, le CHU Ibn Rochd accueille approximativement 1 030 000 patients. Les activités médicales du CHU comprennent des consultations médicales, totalisant 594 435, ainsi que la réalisation de 7 000 accouchements.[réf. nécessaire]
+Le CHU Hopital Ibn Rochd s'étend sur une superficie de 45 hectares et est situé dans le centre-ville, à proximité d'autres établissements de santé publics, et de divers transports en commun à côté sud, ce qui le rend facile d'accès libre.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Centre Hospitalier Universitaire (CHU) Ibn Rochd a été instauré en conformité avec les dispositions énoncées dans la loi numéro 37.80 relative aux centres hospitaliers. Ses attributions et missions sont définies de la manière suivante[5],[6]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Centre Hospitalier Universitaire (CHU) Ibn Rochd a été instauré en conformité avec les dispositions énoncées dans la loi numéro 37.80 relative aux centres hospitaliers. Ses attributions et missions sont définies de la manière suivante,:
 Faire toutes sortes de traitements médicaux.
 Mener des travaux de recherche médicale en tenant pleinement compte de l'inviolabilité des patients, physiquement et moralement, et en préservant leur dignité.
 Participer à l'enseignement clinique, universitaire et post-universitaire dans le domaine de la médecine et de la pharmacie, ainsi qu'à la formation d'assistants médicaux.
@@ -584,6 +600,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,7 +627,9 @@
           <t>Actes pratiqués</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU Ibn Rochd est connu au Maroc pour avoir des médecins spécialisés dans certaines maladies complexes telles que l'hématologie, l'oncologie, la chirurgie cardiovasculaire, la neurochirurgie, le traitement des brûlures, la chirurgie plastique, la chirurgie maxillo-faciale, la chirurgie thoracique et la chirurgie cardiovasculaire.
 </t>
